--- a/data/trans_orig/IMC_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2007 (tasa de respuesta: 98,86%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2007 (tasa de respuesta: 98,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3301,7 +3301,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2012 (tasa de respuesta: 96,9%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2012 (tasa de respuesta: 96,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6048,7 +6048,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2016 (tasa de respuesta: 95,54%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2016 (tasa de respuesta: 95,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8803,7 +8803,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Índice de masa corporal (recodificación OMS) en 2023 (tasa de respuesta: 96,36%)</t>
+          <t>Población según las categorías de la OMS del Índice de Masa Corporal (IMC) en 2023 (tasa de respuesta: 96,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/IMC_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52604</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39970</v>
+        <v>38620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70676</v>
+        <v>67278</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1120412454164379</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08513208350445776</v>
+        <v>0.08225746044888664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1505341938887245</v>
+        <v>0.1432965574395926</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>15958</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8779</v>
+        <v>9695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24634</v>
+        <v>24967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05251934356026731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02889260800540573</v>
+        <v>0.03190753015642073</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08107310201450674</v>
+        <v>0.08216781867465174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -786,19 +786,19 @@
         <v>68562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53874</v>
+        <v>53537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85945</v>
+        <v>87915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0886550226372516</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06966234380181016</v>
+        <v>0.06922658541758306</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1111327946207225</v>
+        <v>0.11368056642628</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>246334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>224541</v>
+        <v>224305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>268128</v>
+        <v>267823</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5246689399096687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.47825288875348</v>
+        <v>0.4777495720699658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5710889583825518</v>
+        <v>0.5704386101813018</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -836,19 +836,19 @@
         <v>71527</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58858</v>
+        <v>57119</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86790</v>
+        <v>85850</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2354017411412021</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1937070518382143</v>
+        <v>0.1879822801557336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2856327077899742</v>
+        <v>0.282539391420379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>313</v>
@@ -857,19 +857,19 @@
         <v>317861</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>291443</v>
+        <v>289809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>348609</v>
+        <v>345315</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4110155292801288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3768548756177057</v>
+        <v>0.3747418854206935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.450774872525245</v>
+        <v>0.4465159276478305</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>170566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>148292</v>
+        <v>149138</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>190706</v>
+        <v>191821</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3632898146738934</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3158480165288443</v>
+        <v>0.3176516874239367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4061871663964519</v>
+        <v>0.4085610903211385</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>194</v>
@@ -907,19 +907,19 @@
         <v>201345</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186038</v>
+        <v>184748</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>217597</v>
+        <v>218072</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6626432603949477</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6122643180424556</v>
+        <v>0.6080188450867979</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7161266574287855</v>
+        <v>0.7176917626495484</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>355</v>
@@ -928,19 +928,19 @@
         <v>371911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>342486</v>
+        <v>343560</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>399649</v>
+        <v>398290</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4809061231760363</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.442857609264189</v>
+        <v>0.4442458168019371</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5167725498968487</v>
+        <v>0.5150161033358306</v>
       </c>
     </row>
     <row r="7">
@@ -970,19 +970,19 @@
         <v>15021</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8360</v>
+        <v>8613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24039</v>
+        <v>23823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04943565490358293</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02751313727061372</v>
+        <v>0.02834612085652379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07911527220455018</v>
+        <v>0.07840381663898963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -991,19 +991,19 @@
         <v>15021</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8513</v>
+        <v>8526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24994</v>
+        <v>24461</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01942332490658329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01100829093362279</v>
+        <v>0.01102425961469516</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03231941758394889</v>
+        <v>0.03162944594790602</v>
       </c>
     </row>
     <row r="8">
@@ -1095,19 +1095,19 @@
         <v>44612</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33737</v>
+        <v>32986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>60075</v>
+        <v>58711</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1231917695374216</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09316084366501426</v>
+        <v>0.09108926609324623</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.165893332701613</v>
+        <v>0.1621252373144196</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -1116,19 +1116,19 @@
         <v>27465</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18500</v>
+        <v>18822</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38850</v>
+        <v>38352</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07444841014635124</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05014835909277317</v>
+        <v>0.0510199191653403</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1053097962212702</v>
+        <v>0.1039582703089355</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>68</v>
@@ -1137,19 +1137,19 @@
         <v>72077</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>56899</v>
+        <v>56803</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>89998</v>
+        <v>90041</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09859394418384484</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07783269392574271</v>
+        <v>0.07770032413093705</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1231087795374196</v>
+        <v>0.1231672983296446</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>171778</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153350</v>
+        <v>151036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191672</v>
+        <v>188993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4743525282027327</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.423463532775718</v>
+        <v>0.4170736704188998</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5292879550289167</v>
+        <v>0.5218892312769615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -1187,19 +1187,19 @@
         <v>100232</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82058</v>
+        <v>83440</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117802</v>
+        <v>118187</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2716950276551528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2224314104627058</v>
+        <v>0.2261763103011403</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.319319533372849</v>
+        <v>0.3203645541486294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>263</v>
@@ -1208,19 +1208,19 @@
         <v>272011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>247190</v>
+        <v>245812</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>300013</v>
+        <v>298052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3720835449538066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3381308582813868</v>
+        <v>0.3362470188651329</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4103882957643318</v>
+        <v>0.4077056565531131</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>144669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>127991</v>
+        <v>126501</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165289</v>
+        <v>163908</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3994937602318762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3534372830382915</v>
+        <v>0.3493234849135624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4564338383658557</v>
+        <v>0.4526200427595288</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -1258,19 +1258,19 @@
         <v>232815</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>213840</v>
+        <v>215471</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>251238</v>
+        <v>252271</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6310814738342795</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5796462000282436</v>
+        <v>0.5840673985243694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6810178494777172</v>
+        <v>0.6838178972746728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>364</v>
@@ -1279,19 +1279,19 @@
         <v>377485</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>349350</v>
+        <v>349203</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>404542</v>
+        <v>404686</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5163620722315136</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.477876859004128</v>
+        <v>0.47767543508325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5533740421068342</v>
+        <v>0.553570165882819</v>
       </c>
     </row>
     <row r="12">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5306</v>
+        <v>5436</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.002961942027969513</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01465265604036612</v>
+        <v>0.0150117664217911</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1329,19 +1329,19 @@
         <v>8402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4371</v>
+        <v>4444</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15874</v>
+        <v>15267</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02277508836421651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01184797196278161</v>
+        <v>0.01204737400164281</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04302784267038934</v>
+        <v>0.04138398606039506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1350,19 +1350,19 @@
         <v>9475</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4822</v>
+        <v>4684</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17030</v>
+        <v>16574</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01296043863083489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006595373291410739</v>
+        <v>0.006407773766398791</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02329570029619047</v>
+        <v>0.02267141504507238</v>
       </c>
     </row>
     <row r="13">
@@ -1454,19 +1454,19 @@
         <v>84059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68384</v>
+        <v>67860</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101881</v>
+        <v>101694</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1549785196175697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.126079735330991</v>
+        <v>0.1251139175919116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1878372999407972</v>
+        <v>0.1874919914560354</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1475,19 +1475,19 @@
         <v>29172</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20249</v>
+        <v>19821</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39565</v>
+        <v>39392</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.177141608682655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1229602373434377</v>
+        <v>0.120359395743246</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2402579629200857</v>
+        <v>0.2392070570519158</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>112</v>
@@ -1496,19 +1496,19 @@
         <v>113230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94211</v>
+        <v>93872</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135920</v>
+        <v>133034</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.160140380199541</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.133242335574316</v>
+        <v>0.1327621732800399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1922298726217956</v>
+        <v>0.1881485821706679</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>276830</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>254545</v>
+        <v>254192</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>303021</v>
+        <v>301015</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5103903616301169</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4693029644656241</v>
+        <v>0.4686533198233941</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5586778509319883</v>
+        <v>0.5549797178159391</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>44</v>
@@ -1546,19 +1546,19 @@
         <v>44575</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32885</v>
+        <v>33865</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>55560</v>
+        <v>55918</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2706784899996703</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1996926611180548</v>
+        <v>0.2056434948566914</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3373817076723367</v>
+        <v>0.3395551994627364</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>315</v>
@@ -1567,19 +1567,19 @@
         <v>321405</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>293502</v>
+        <v>294601</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>349674</v>
+        <v>346631</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4545606324093353</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4150976855554041</v>
+        <v>0.4166519003229771</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4945406379828916</v>
+        <v>0.490237331268694</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>177743</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>158051</v>
+        <v>155325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>199732</v>
+        <v>199223</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3277031572843804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2913985851351825</v>
+        <v>0.2863715526950556</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3682444072395806</v>
+        <v>0.3673061005816723</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -1617,19 +1617,19 @@
         <v>86610</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73903</v>
+        <v>74428</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99667</v>
+        <v>100188</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5259312763258791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4487704042756026</v>
+        <v>0.4519551597460378</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.605218345963359</v>
+        <v>0.6083835777999537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>258</v>
@@ -1638,19 +1638,19 @@
         <v>264352</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>235987</v>
+        <v>240181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>290816</v>
+        <v>293136</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3738711761428425</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3337543028600095</v>
+        <v>0.3396863831979527</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4112979589705131</v>
+        <v>0.4145802205627541</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>3758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9505</v>
+        <v>9272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006927961467933053</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001800146246916505</v>
+        <v>0.001800676295779572</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01752393165977244</v>
+        <v>0.01709528953759604</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1688,19 +1688,19 @@
         <v>4323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10810</v>
+        <v>10122</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02624862499179564</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007076709708888072</v>
+        <v>0.007013155731601214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06564478033583898</v>
+        <v>0.06146402642573189</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1709,19 +1709,19 @@
         <v>8080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3834</v>
+        <v>4076</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15768</v>
+        <v>16375</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01142781124828108</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005421880368343621</v>
+        <v>0.005765048667538215</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02230115669620105</v>
+        <v>0.02315968445874592</v>
       </c>
     </row>
     <row r="18">
@@ -1813,19 +1813,19 @@
         <v>162491</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>139278</v>
+        <v>138090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>186245</v>
+        <v>185402</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1324895872281084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.113562462373808</v>
+        <v>0.1125939930877786</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1518572923757867</v>
+        <v>0.1511700192775057</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -1834,19 +1834,19 @@
         <v>94855</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78061</v>
+        <v>78138</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>114164</v>
+        <v>115922</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1337198169174991</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1100447051288233</v>
+        <v>0.1101539027788247</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1609412505901314</v>
+        <v>0.163419867799387</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -1855,19 +1855,19 @@
         <v>257346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>226500</v>
+        <v>231580</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>287008</v>
+        <v>289837</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1329403917681909</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1170057256760105</v>
+        <v>0.1196301328293475</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.148263083491922</v>
+        <v>0.1497248052439155</v>
       </c>
     </row>
     <row r="20">
@@ -1884,19 +1884,19 @@
         <v>625959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>594419</v>
+        <v>591947</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>664470</v>
+        <v>662874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5103840866236647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4846678034528226</v>
+        <v>0.4826524788679876</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5417853590875068</v>
+        <v>0.5404834641365509</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>218</v>
@@ -1905,19 +1905,19 @@
         <v>220640</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>196787</v>
+        <v>197250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>248386</v>
+        <v>245868</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3110442182016277</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2774174480111084</v>
+        <v>0.2780699364291243</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.350158452010624</v>
+        <v>0.3466085652099516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>846</v>
@@ -1926,19 +1926,19 @@
         <v>846599</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>805015</v>
+        <v>802672</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>890091</v>
+        <v>892867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4373381192900329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4158565606629762</v>
+        <v>0.4146461805821545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4598051665768481</v>
+        <v>0.4612391763674537</v>
       </c>
     </row>
     <row r="21">
@@ -1955,19 +1955,19 @@
         <v>433451</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>402126</v>
+        <v>399863</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>466807</v>
+        <v>466743</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3534203509229935</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3278794359500866</v>
+        <v>0.326034056958351</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3806179533710146</v>
+        <v>0.3805652475493156</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>362</v>
@@ -1976,19 +1976,19 @@
         <v>375409</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>348431</v>
+        <v>347743</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>403226</v>
+        <v>404776</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5292274977219604</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4911952908251108</v>
+        <v>0.4902261155227193</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5684421748095918</v>
+        <v>0.5706263870393651</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>780</v>
@@ -1997,19 +1997,19 @@
         <v>808860</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>765755</v>
+        <v>764510</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>853432</v>
+        <v>854963</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4178430035702181</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3955756715002001</v>
+        <v>0.3949323957691111</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4408678260666347</v>
+        <v>0.441658932213264</v>
       </c>
     </row>
     <row r="22">
@@ -2026,19 +2026,19 @@
         <v>4545</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11181</v>
+        <v>11988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003705975225233397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.000785550549389012</v>
+        <v>0.0007902719151934495</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009116545717347961</v>
+        <v>0.009774723122454306</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -2047,19 +2047,19 @@
         <v>18449</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11279</v>
+        <v>11629</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29297</v>
+        <v>30188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02600846715891277</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01590038101389697</v>
+        <v>0.01639417841822249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04130089428555549</v>
+        <v>0.04255718736728479</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2068,19 +2068,19 @@
         <v>22994</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14634</v>
+        <v>14467</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34975</v>
+        <v>33900</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01187848537155811</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007559858380527845</v>
+        <v>0.007473278369126472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01806744063186675</v>
+        <v>0.01751207078513093</v>
       </c>
     </row>
     <row r="23">
@@ -2172,19 +2172,19 @@
         <v>41757</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31304</v>
+        <v>29893</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56465</v>
+        <v>55203</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1219971623990696</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0914585029702662</v>
+        <v>0.08733757274616014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1649687319887558</v>
+        <v>0.1612836577942177</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>102</v>
@@ -2193,19 +2193,19 @@
         <v>107766</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>90817</v>
+        <v>89786</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>128298</v>
+        <v>130073</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1929768524544182</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1626261162153483</v>
+        <v>0.1607794266008739</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2297433755046518</v>
+        <v>0.2329216871057725</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>142</v>
@@ -2214,19 +2214,19 @@
         <v>149523</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>127588</v>
+        <v>127015</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>176524</v>
+        <v>173409</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1660043472524533</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1416518227731733</v>
+        <v>0.1410155876812156</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1959813934982702</v>
+        <v>0.1925230652239698</v>
       </c>
     </row>
     <row r="25">
@@ -2243,19 +2243,19 @@
         <v>145912</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>125451</v>
+        <v>127767</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163397</v>
+        <v>165765</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4263013431082555</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3665220510133143</v>
+        <v>0.3732861772975051</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4773839930997236</v>
+        <v>0.4843042097571366</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>202</v>
@@ -2264,19 +2264,19 @@
         <v>206894</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185944</v>
+        <v>185005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232433</v>
+        <v>232525</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3704853505772275</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3329706987989046</v>
+        <v>0.3312879810622045</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.416217138127089</v>
+        <v>0.4163828780059856</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>350</v>
@@ -2285,19 +2285,19 @@
         <v>352806</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>322188</v>
+        <v>324692</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>381039</v>
+        <v>383104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3916956030835717</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3577020214928002</v>
+        <v>0.3604816865245767</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4230395625862506</v>
+        <v>0.4253329805447159</v>
       </c>
     </row>
     <row r="26">
@@ -2314,19 +2314,19 @@
         <v>149332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>130849</v>
+        <v>130641</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170072</v>
+        <v>168832</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4362938589591019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.382293407613957</v>
+        <v>0.3816833539143606</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4968881401131074</v>
+        <v>0.4932639635145932</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>221</v>
@@ -2335,19 +2335,19 @@
         <v>238674</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>212753</v>
+        <v>211061</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>262288</v>
+        <v>259878</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4273926224714337</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3809774364938104</v>
+        <v>0.3779470447357849</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4696789331466718</v>
+        <v>0.4653626817878306</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>360</v>
@@ -2356,19 +2356,19 @@
         <v>388006</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>358633</v>
+        <v>358930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>418549</v>
+        <v>420311</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4307751202997608</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3981646582565274</v>
+        <v>0.3984945731015329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4646849787101179</v>
+        <v>0.4666410069146865</v>
       </c>
     </row>
     <row r="27">
@@ -2385,19 +2385,19 @@
         <v>5274</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1860</v>
+        <v>1782</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12312</v>
+        <v>11427</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01540763553357297</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005433222983610017</v>
+        <v>0.005206857948657048</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03597210201494941</v>
+        <v>0.03338630431293473</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>5</v>
@@ -2406,19 +2406,19 @@
         <v>5107</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11904</v>
+        <v>11391</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.009145174496920547</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003594552825057011</v>
+        <v>0.003587460327873211</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02131561266974943</v>
+        <v>0.02039840924329344</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>10</v>
@@ -2427,19 +2427,19 @@
         <v>10381</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5251</v>
+        <v>5036</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>18520</v>
+        <v>18615</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01152492936421419</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.005829807406820332</v>
+        <v>0.005591549591556826</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02056143017180545</v>
+        <v>0.02066665507136973</v>
       </c>
     </row>
     <row r="28">
@@ -2531,19 +2531,19 @@
         <v>7973</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3914</v>
+        <v>3917</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14881</v>
+        <v>15019</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0268975046371236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01320227454545798</v>
+        <v>0.01321509059466705</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05020079817857698</v>
+        <v>0.05066557268702519</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>218</v>
@@ -2552,19 +2552,19 @@
         <v>222095</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>195739</v>
+        <v>196059</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>250415</v>
+        <v>248891</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1810560298942548</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1595704167613344</v>
+        <v>0.1598311353669493</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2041432557595447</v>
+        <v>0.2029009185030569</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>226</v>
@@ -2573,19 +2573,19 @@
         <v>230069</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>202755</v>
+        <v>203827</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>258818</v>
+        <v>262560</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1510524734686012</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1331198238698046</v>
+        <v>0.1338234100031923</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1699277987836568</v>
+        <v>0.1723849969734318</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>61166</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48990</v>
+        <v>49767</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>75441</v>
+        <v>76777</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2063353308712882</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1652631003648783</v>
+        <v>0.167883277773233</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2544904536564292</v>
+        <v>0.2589969514572502</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>424</v>
@@ -2623,19 +2623,19 @@
         <v>433862</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>400965</v>
+        <v>401840</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>466834</v>
+        <v>469391</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3536926664148606</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3268742674224825</v>
+        <v>0.3275873443027811</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3805713763114306</v>
+        <v>0.382655974842869</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>487</v>
@@ -2644,19 +2644,19 @@
         <v>495028</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>459260</v>
+        <v>461114</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>533568</v>
+        <v>532862</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3250128115424747</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3015290538812928</v>
+        <v>0.3027459636510533</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3503164032286169</v>
+        <v>0.3498524523592251</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>223614</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>209636</v>
+        <v>207278</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>236937</v>
+        <v>236180</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7543346635045415</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.707180918574416</v>
+        <v>0.6992280247840529</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.799278696243955</v>
+        <v>0.7967235434427264</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>539</v>
@@ -2694,19 +2694,19 @@
         <v>534348</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>502228</v>
+        <v>497713</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>569618</v>
+        <v>568619</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4356105641380633</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.409425521759126</v>
+        <v>0.4057449742315091</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4643627418497688</v>
+        <v>0.4635488380037344</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>768</v>
@@ -2715,19 +2715,19 @@
         <v>757962</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>719400</v>
+        <v>718284</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>793026</v>
+        <v>797257</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4976431794839045</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4723251575913466</v>
+        <v>0.4715919054516152</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.520664132710917</v>
+        <v>0.5234421802191396</v>
       </c>
     </row>
     <row r="32">
@@ -2744,19 +2744,19 @@
         <v>3685</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8679</v>
+        <v>8578</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0124325009870467</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003328638761850399</v>
+        <v>0.003288707186294377</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02927775031928034</v>
+        <v>0.02893793706930451</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>37</v>
@@ -2765,19 +2765,19 @@
         <v>36359</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26027</v>
+        <v>25593</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>49314</v>
+        <v>48530</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02964073955282129</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02121738662176526</v>
+        <v>0.02086392636640156</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04020152756976253</v>
+        <v>0.03956229784177655</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>41</v>
@@ -2786,19 +2786,19 @@
         <v>40045</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>29129</v>
+        <v>29400</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>54534</v>
+        <v>54309</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02629153550501958</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01912458065910944</v>
+        <v>0.01930269711768663</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03580467309712525</v>
+        <v>0.03565649885892364</v>
       </c>
     </row>
     <row r="33">
@@ -2890,19 +2890,19 @@
         <v>393495</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>358548</v>
+        <v>359520</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>432467</v>
+        <v>428748</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1214798101331154</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1106908520053986</v>
+        <v>0.1109908587520502</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1335110274957939</v>
+        <v>0.1323630627164576</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>483</v>
@@ -2911,19 +2911,19 @@
         <v>497311</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>457227</v>
+        <v>461077</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>534494</v>
+        <v>542952</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1492571346772422</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1372270167260301</v>
+        <v>0.1383823331607493</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1604169995652397</v>
+        <v>0.1629555483870949</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>866</v>
@@ -2932,19 +2932,19 @@
         <v>890806</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>835343</v>
+        <v>834502</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>942207</v>
+        <v>948575</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1355644485323111</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1271239733432954</v>
+        <v>0.1269960261113949</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1433867437299335</v>
+        <v>0.1443558108647766</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>1527979</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1470365</v>
+        <v>1475002</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1580231</v>
+        <v>1589570</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4717171894710402</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4539305442547414</v>
+        <v>0.4553623069411174</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.487848427876569</v>
+        <v>0.4907316541631972</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1057</v>
@@ -2982,19 +2982,19 @@
         <v>1077732</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1024191</v>
+        <v>1024102</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1132346</v>
+        <v>1130842</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3234580651670186</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3073891174580581</v>
+        <v>0.3073624137760999</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3398495093293798</v>
+        <v>0.3393978843599692</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2574</v>
@@ -3003,19 +3003,19 @@
         <v>2605710</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2533985</v>
+        <v>2525854</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2689566</v>
+        <v>2691769</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3965416212882118</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3856263412379062</v>
+        <v>0.3843889903575055</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4093029414232297</v>
+        <v>0.40963820204812</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>1299375</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1239613</v>
+        <v>1239161</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1354801</v>
+        <v>1354448</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4011427574850506</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3826929362980502</v>
+        <v>0.3825535227216569</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4182538352118356</v>
+        <v>0.4181448259039353</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1627</v>
@@ -3053,19 +3053,19 @@
         <v>1669202</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1608642</v>
+        <v>1611427</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1727489</v>
+        <v>1725640</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5009751455656613</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.482799541504534</v>
+        <v>0.4836354329597963</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5184688741642054</v>
+        <v>0.5179140585940171</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2885</v>
@@ -3074,19 +3074,19 @@
         <v>2968577</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2888266</v>
+        <v>2887266</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3044964</v>
+        <v>3049413</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4517632945497292</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4395414378749907</v>
+        <v>0.4393893062870746</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4633880151066277</v>
+        <v>0.4640650517815849</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>18335</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11292</v>
+        <v>10593</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28846</v>
+        <v>28634</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.005660242910793813</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003486193585086135</v>
+        <v>0.003270287163401157</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.008905418685732002</v>
+        <v>0.00883980312169153</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>87</v>
@@ -3124,19 +3124,19 @@
         <v>87661</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>72275</v>
+        <v>70583</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>108638</v>
+        <v>108289</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02630965459007801</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02169189898535035</v>
+        <v>0.02118408916210456</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03260535100220666</v>
+        <v>0.03250050703607001</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>105</v>
@@ -3145,19 +3145,19 @@
         <v>105996</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>86945</v>
+        <v>87110</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>128060</v>
+        <v>128030</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0161306356297478</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01323151596039378</v>
+        <v>0.01325660681221058</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.01948842561257476</v>
+        <v>0.01948388297390586</v>
       </c>
     </row>
     <row r="38">
@@ -3491,19 +3491,19 @@
         <v>52754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39714</v>
+        <v>40421</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69553</v>
+        <v>68101</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1227191820651517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09238485854420732</v>
+        <v>0.09403051591253478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1617981321413406</v>
+        <v>0.1584205304026527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -3512,19 +3512,19 @@
         <v>21606</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14775</v>
+        <v>13528</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32505</v>
+        <v>32832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06938022837388953</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04744334672934518</v>
+        <v>0.04344152796962814</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.10437881173745</v>
+        <v>0.1054298574641408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -3533,19 +3533,19 @@
         <v>74360</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>57758</v>
+        <v>59754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>93117</v>
+        <v>92470</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1003115488698977</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07791505183143033</v>
+        <v>0.08060741638394149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1256152851812452</v>
+        <v>0.1247424981862505</v>
       </c>
     </row>
     <row r="5">
@@ -3562,19 +3562,19 @@
         <v>228780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>206424</v>
+        <v>208749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249794</v>
+        <v>251429</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5322014872747362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4801953720485984</v>
+        <v>0.4856030568772575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5810862307530227</v>
+        <v>0.5848877294299144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -3583,19 +3583,19 @@
         <v>77949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62328</v>
+        <v>61759</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94844</v>
+        <v>96838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2503068724705128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2001450513248021</v>
+        <v>0.198317692481092</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3045571065612077</v>
+        <v>0.3109603257495269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>282</v>
@@ -3604,19 +3604,19 @@
         <v>306730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>276800</v>
+        <v>277808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>334106</v>
+        <v>336305</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.413777883302069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3734023790479944</v>
+        <v>0.374762188819611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4507079075692709</v>
+        <v>0.4536746152100737</v>
       </c>
     </row>
     <row r="6">
@@ -3633,19 +3633,19 @@
         <v>148341</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>128082</v>
+        <v>126545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>170571</v>
+        <v>167825</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3450793306601122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2979510580296584</v>
+        <v>0.2943766643974307</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3967928018189309</v>
+        <v>0.3904046008388013</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>178</v>
@@ -3654,19 +3654,19 @@
         <v>199151</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>180992</v>
+        <v>180218</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216832</v>
+        <v>217520</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6395025350005679</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5811912291005309</v>
+        <v>0.5787055213894017</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6962784081332811</v>
+        <v>0.6984880007184475</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>314</v>
@@ -3675,19 +3675,19 @@
         <v>347492</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>318193</v>
+        <v>319689</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>377838</v>
+        <v>374829</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.46876618071006</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.429242333839682</v>
+        <v>0.4312591726228223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5097030591816062</v>
+        <v>0.5056436602270141</v>
       </c>
     </row>
     <row r="7">
@@ -3717,19 +3717,19 @@
         <v>12709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6645</v>
+        <v>6822</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21698</v>
+        <v>21384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04081036415502984</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02133698594855404</v>
+        <v>0.02190690060828037</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06967549292002288</v>
+        <v>0.06866639659204013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -3738,19 +3738,19 @@
         <v>12709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6651</v>
+        <v>6982</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21676</v>
+        <v>22070</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01714438711797334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00897182643166437</v>
+        <v>0.009418056614623225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02924064613057878</v>
+        <v>0.029773041267476</v>
       </c>
     </row>
     <row r="8">
@@ -3842,19 +3842,19 @@
         <v>61748</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47462</v>
+        <v>47090</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77554</v>
+        <v>78567</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1528202178406791</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1174634651302722</v>
+        <v>0.1165422797142068</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1919394097066931</v>
+        <v>0.1944454565994997</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -3863,19 +3863,19 @@
         <v>36561</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>25881</v>
+        <v>25796</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>49632</v>
+        <v>49850</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1119531427817414</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07925022711595157</v>
+        <v>0.07898919393390159</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1519806274828966</v>
+        <v>0.1526454707559549</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>90</v>
@@ -3884,19 +3884,19 @@
         <v>98309</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>79642</v>
+        <v>78358</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>119115</v>
+        <v>119718</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1345537094752273</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1090052688657581</v>
+        <v>0.1072481481742287</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1630314982288269</v>
+        <v>0.1638562572681378</v>
       </c>
     </row>
     <row r="10">
@@ -3913,19 +3913,19 @@
         <v>215161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192433</v>
+        <v>193331</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>237912</v>
+        <v>235952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5325028573760395</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4762538269911877</v>
+        <v>0.4784751558428155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5888085657837947</v>
+        <v>0.5839576349734004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>89</v>
@@ -3934,19 +3934,19 @@
         <v>100941</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83002</v>
+        <v>83855</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118635</v>
+        <v>120322</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3090927599756333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2541618175706952</v>
+        <v>0.2567756125615139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3632754817928085</v>
+        <v>0.368439413452754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>282</v>
@@ -3955,19 +3955,19 @@
         <v>316102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286848</v>
+        <v>288376</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344874</v>
+        <v>345830</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.43264441614418</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3926057506102133</v>
+        <v>0.3946962147103543</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4720252365703371</v>
+        <v>0.47333295486736</v>
       </c>
     </row>
     <row r="11">
@@ -3984,19 +3984,19 @@
         <v>124183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105853</v>
+        <v>104335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144088</v>
+        <v>145118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3073417793885213</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2619763080351022</v>
+        <v>0.2582195715335646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.356603308980577</v>
+        <v>0.3591534062862076</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>160</v>
@@ -4005,19 +4005,19 @@
         <v>176350</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157742</v>
+        <v>156234</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>194677</v>
+        <v>194427</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5400058522034379</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.483025650580122</v>
+        <v>0.4784064854645022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5961241707599128</v>
+        <v>0.5953597453612977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>270</v>
@@ -4026,19 +4026,19 @@
         <v>300534</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>272214</v>
+        <v>271172</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>329741</v>
+        <v>329983</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4113365043910949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3725763254292464</v>
+        <v>0.3711490882514983</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4513129481339043</v>
+        <v>0.4516440307865053</v>
       </c>
     </row>
     <row r="12">
@@ -4055,19 +4055,19 @@
         <v>2964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7923</v>
+        <v>8620</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007335145394760047</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002251113828542341</v>
+        <v>0.002226735194727134</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0196085165908264</v>
+        <v>0.02133462504542481</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -4076,19 +4076,19 @@
         <v>12719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6818</v>
+        <v>7458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21011</v>
+        <v>21084</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03894824503918743</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02087608611354467</v>
+        <v>0.02283689102683316</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06433674659382509</v>
+        <v>0.06456260104069825</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -4097,19 +4097,19 @@
         <v>15683</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9463</v>
+        <v>9164</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25069</v>
+        <v>23948</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02146536998949778</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01295236881798001</v>
+        <v>0.01254278299721644</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03431189885653969</v>
+        <v>0.0327774252343549</v>
       </c>
     </row>
     <row r="13">
@@ -4201,19 +4201,19 @@
         <v>131397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111503</v>
+        <v>112049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>152000</v>
+        <v>152911</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2121824231617385</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1800572345181823</v>
+        <v>0.1809382028478355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2454520665484566</v>
+        <v>0.2469224209588446</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -4222,19 +4222,19 @@
         <v>64192</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49065</v>
+        <v>51242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>78910</v>
+        <v>79260</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2624803272207801</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.200625872891266</v>
+        <v>0.2095289519956247</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3226618132364243</v>
+        <v>0.3240949465978856</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>178</v>
@@ -4243,19 +4243,19 @@
         <v>195589</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170802</v>
+        <v>170377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>221900</v>
+        <v>223666</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2264223414579721</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1977277611121009</v>
+        <v>0.1972357382560544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2568813940423125</v>
+        <v>0.25892514824156</v>
       </c>
     </row>
     <row r="15">
@@ -4272,19 +4272,19 @@
         <v>318453</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>292588</v>
+        <v>290809</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>342820</v>
+        <v>344684</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.5142427237563876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4724760261045576</v>
+        <v>0.469602088469469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5535902605152024</v>
+        <v>0.556601177292423</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>79</v>
@@ -4293,19 +4293,19 @@
         <v>84371</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>69448</v>
+        <v>70326</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>99628</v>
+        <v>99736</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3449920393151016</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2839739653690693</v>
+        <v>0.2875608988283679</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.407379207086511</v>
+        <v>0.4078210111658385</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>379</v>
@@ -4314,19 +4314,19 @@
         <v>402824</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>368213</v>
+        <v>372327</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>431380</v>
+        <v>433716</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4663258977352388</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4262593492020458</v>
+        <v>0.4310216587171682</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4993842504098306</v>
+        <v>0.5020881230612272</v>
       </c>
     </row>
     <row r="16">
@@ -4343,19 +4343,19 @@
         <v>166378</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>145720</v>
+        <v>143541</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>190773</v>
+        <v>188650</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2686704882194102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2353102328573068</v>
+        <v>0.2317914195824357</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3080627269784245</v>
+        <v>0.3046355388721324</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -4364,19 +4364,19 @@
         <v>93963</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>79221</v>
+        <v>77484</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>110209</v>
+        <v>109526</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3842140525361708</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3239330937960067</v>
+        <v>0.3168325334511324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4506431123721782</v>
+        <v>0.4478492429385449</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>249</v>
@@ -4385,19 +4385,19 @@
         <v>260341</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232710</v>
+        <v>234939</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>288914</v>
+        <v>287872</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3013822074511884</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2693946547606039</v>
+        <v>0.2719758226445703</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3344592155150238</v>
+        <v>0.3332528857835578</v>
       </c>
     </row>
     <row r="17">
@@ -4417,16 +4417,16 @@
         <v>980</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8110</v>
+        <v>8047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004904364862463752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00158201415871449</v>
+        <v>0.001582606338770533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01309688159609273</v>
+        <v>0.01299371824044628</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8233</v>
+        <v>7123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.008313580927947529</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03366398260797433</v>
+        <v>0.02912765218517043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -4456,19 +4456,19 @@
         <v>5070</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1996</v>
+        <v>1975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11172</v>
+        <v>10363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.005869553355600757</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002310263720570304</v>
+        <v>0.002285975883752149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01293277268924434</v>
+        <v>0.01199692463101537</v>
       </c>
     </row>
     <row r="18">
@@ -4560,19 +4560,19 @@
         <v>208187</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>183401</v>
+        <v>182885</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>237459</v>
+        <v>238647</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1822082115742709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1605158778809681</v>
+        <v>0.1600641293240142</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.207828075561421</v>
+        <v>0.2088680117323799</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>129</v>
@@ -4581,19 +4581,19 @@
         <v>139763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120681</v>
+        <v>119280</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>166321</v>
+        <v>164566</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1856245195396575</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1602810275366688</v>
+        <v>0.1584207815841867</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2208977961186359</v>
+        <v>0.2185673788279464</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>320</v>
@@ -4602,19 +4602,19 @@
         <v>347949</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>314177</v>
+        <v>312810</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>385331</v>
+        <v>384561</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1835652350808509</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1657485757935315</v>
+        <v>0.165027202967832</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2032863578710107</v>
+        <v>0.2028805535469126</v>
       </c>
     </row>
     <row r="20">
@@ -4631,19 +4631,19 @@
         <v>571195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>535162</v>
+        <v>537258</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>604057</v>
+        <v>609068</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4999188235954041</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4683823439500744</v>
+        <v>0.4702167567083234</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5286808147731781</v>
+        <v>0.533066245477604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>224</v>
@@ -4652,19 +4652,19 @@
         <v>240768</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211125</v>
+        <v>216385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>266231</v>
+        <v>267893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3197744440887332</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2804044053380118</v>
+        <v>0.2873895555429792</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3535921714945144</v>
+        <v>0.3557998533618759</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>761</v>
@@ -4673,19 +4673,19 @@
         <v>811963</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>766054</v>
+        <v>771118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>855849</v>
+        <v>856636</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4283619967385605</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4041421040489935</v>
+        <v>0.4068138300415544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4515149038750099</v>
+        <v>0.4519300179195578</v>
       </c>
     </row>
     <row r="21">
@@ -4702,19 +4702,19 @@
         <v>354989</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>324152</v>
+        <v>323117</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>387650</v>
+        <v>390474</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3106919898256861</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2837031464033643</v>
+        <v>0.2827970698791142</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3392775374349231</v>
+        <v>0.3417490323792347</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>326</v>
@@ -4723,19 +4723,19 @@
         <v>352452</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>324538</v>
+        <v>323517</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>383585</v>
+        <v>379870</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4681055480203699</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4310326561075427</v>
+        <v>0.4296763586665182</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5094556661718715</v>
+        <v>0.5045210136680262</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>658</v>
@@ -4744,19 +4744,19 @@
         <v>707440</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>664647</v>
+        <v>661223</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>751437</v>
+        <v>752816</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3732196954332849</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.350643466556485</v>
+        <v>0.3488374586659974</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3964306113582843</v>
+        <v>0.397158517397963</v>
       </c>
     </row>
     <row r="22">
@@ -4773,19 +4773,19 @@
         <v>8205</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3956</v>
+        <v>3995</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15443</v>
+        <v>15494</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007180975004638934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003462665265802048</v>
+        <v>0.003496209128056109</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01351620736743427</v>
+        <v>0.01356078793283221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4794,19 +4794,19 @@
         <v>19949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12793</v>
+        <v>11990</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30357</v>
+        <v>29166</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02649548835123942</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01699156050678131</v>
+        <v>0.01592440342110468</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04031789970099973</v>
+        <v>0.03873675503519288</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4815,19 +4815,19 @@
         <v>28154</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18663</v>
+        <v>18643</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40421</v>
+        <v>40684</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01485307274730377</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009845758539307491</v>
+        <v>0.009835410148500746</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02132459758945997</v>
+        <v>0.02146342245383754</v>
       </c>
     </row>
     <row r="23">
@@ -4919,19 +4919,19 @@
         <v>90884</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75894</v>
+        <v>74848</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>109714</v>
+        <v>110382</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1837061208552774</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1534068902284183</v>
+        <v>0.1512914343907726</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2217680615940098</v>
+        <v>0.2231168341530696</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>183</v>
@@ -4940,19 +4940,19 @@
         <v>196263</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>172504</v>
+        <v>171656</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>221833</v>
+        <v>223055</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2755231129155263</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2421683220213283</v>
+        <v>0.2409777409438631</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3114182541885214</v>
+        <v>0.3131338194529105</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>269</v>
@@ -4961,19 +4961,19 @@
         <v>287148</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>259641</v>
+        <v>255813</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>320004</v>
+        <v>316435</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2378908265488139</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2151021620773862</v>
+        <v>0.2119315211491519</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2651111318020956</v>
+        <v>0.2621542809209984</v>
       </c>
     </row>
     <row r="25">
@@ -4990,19 +4990,19 @@
         <v>231430</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>208559</v>
+        <v>207809</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>253994</v>
+        <v>252723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4677946830947098</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4215643816624766</v>
+        <v>0.4200486118103426</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5134034757641293</v>
+        <v>0.5108338459664643</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -5011,19 +5011,19 @@
         <v>256502</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227669</v>
+        <v>229184</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282199</v>
+        <v>281104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3600881534983007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3196116821165936</v>
+        <v>0.3217389188948643</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3961630286519885</v>
+        <v>0.3946256390962762</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>452</v>
@@ -5032,19 +5032,19 @@
         <v>487932</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>452449</v>
+        <v>454880</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>520964</v>
+        <v>524558</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4042329558315897</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3748367102627207</v>
+        <v>0.3768508608522873</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4315987689228035</v>
+        <v>0.434576342268322</v>
       </c>
     </row>
     <row r="26">
@@ -5061,19 +5061,19 @@
         <v>170512</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>151798</v>
+        <v>149208</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>193454</v>
+        <v>192403</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3446589529027976</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3068319642588341</v>
+        <v>0.3015979901743963</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3910330536136229</v>
+        <v>0.3889083755565234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>230</v>
@@ -5082,19 +5082,19 @@
         <v>251879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>222896</v>
+        <v>227125</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>276542</v>
+        <v>279518</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3535994533631827</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3129115170918633</v>
+        <v>0.3188485712340944</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3882217630330765</v>
+        <v>0.3924001734040238</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>398</v>
@@ -5103,19 +5103,19 @@
         <v>422392</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>389463</v>
+        <v>389565</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>457200</v>
+        <v>458516</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3499350829014912</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.322654764718206</v>
+        <v>0.3227396897113822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3787728385071186</v>
+        <v>0.3798624828315293</v>
       </c>
     </row>
     <row r="27">
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6152</v>
+        <v>6618</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.003840243147215177</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0124344443928153</v>
+        <v>0.01337659377636431</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -5153,19 +5153,19 @@
         <v>7686</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3255</v>
+        <v>2965</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>15147</v>
+        <v>15502</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01078928022299037</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.004569572835128936</v>
+        <v>0.004161890289173993</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02126334406918289</v>
+        <v>0.02176254567141925</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>9</v>
@@ -5174,19 +5174,19 @@
         <v>9585</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4059</v>
+        <v>4393</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17367</v>
+        <v>18603</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.007941134718105213</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.003362556040613033</v>
+        <v>0.003639307557947803</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01438758400157675</v>
+        <v>0.01541167786255861</v>
       </c>
     </row>
     <row r="28">
@@ -5278,19 +5278,19 @@
         <v>10333</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5155</v>
+        <v>5119</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18349</v>
+        <v>17567</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03885577024328305</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01938630072449544</v>
+        <v>0.01924774472565401</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0689987859917357</v>
+        <v>0.06605882747390462</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>240</v>
@@ -5299,19 +5299,19 @@
         <v>256607</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>229072</v>
+        <v>228430</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>286520</v>
+        <v>285719</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2437893317443554</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2176304642151436</v>
+        <v>0.2170196939350486</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2722090706132812</v>
+        <v>0.2714480848352484</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>250</v>
@@ -5320,19 +5320,19 @@
         <v>266939</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>235935</v>
+        <v>239056</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>296426</v>
+        <v>296787</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2024564666235769</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1789417014562051</v>
+        <v>0.181308620237967</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2248197520445792</v>
+        <v>0.2250938469394209</v>
       </c>
     </row>
     <row r="30">
@@ -5349,19 +5349,19 @@
         <v>76362</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>62259</v>
+        <v>63750</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>91043</v>
+        <v>93301</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2871543640013583</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2341193299124863</v>
+        <v>0.2397274865936577</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3423607845651334</v>
+        <v>0.3508509853595038</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>349</v>
@@ -5370,19 +5370,19 @@
         <v>370567</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>340983</v>
+        <v>341859</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>400742</v>
+        <v>404135</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3520578503549463</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3239510444011963</v>
+        <v>0.3247832519260169</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.380724958754518</v>
+        <v>0.3839490021099482</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>426</v>
@@ -5391,19 +5391,19 @@
         <v>446930</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>412958</v>
+        <v>415079</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>484013</v>
+        <v>483602</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3389675247505328</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3132018031650146</v>
+        <v>0.3148106873501431</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3670931478714282</v>
+        <v>0.3667808882719514</v>
       </c>
     </row>
     <row r="31">
@@ -5420,19 +5420,19 @@
         <v>164282</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>149138</v>
+        <v>148608</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>180171</v>
+        <v>180050</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6177693795401588</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5608210628212823</v>
+        <v>0.5588268031660553</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6775196896221882</v>
+        <v>0.6770633453613136</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>373</v>
@@ -5441,19 +5441,19 @@
         <v>396709</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>364376</v>
+        <v>365481</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>428425</v>
+        <v>427240</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3768941177242969</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.346176123254204</v>
+        <v>0.3472258086979084</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4070252087480111</v>
+        <v>0.4058996082092746</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>535</v>
@@ -5462,19 +5462,19 @@
         <v>560991</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>524336</v>
+        <v>523505</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>599409</v>
+        <v>592868</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4254760319536805</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3976752547599243</v>
+        <v>0.3970448324225337</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4546129214344159</v>
+        <v>0.4496524475868834</v>
       </c>
     </row>
     <row r="32">
@@ -5491,19 +5491,19 @@
         <v>14951</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8952</v>
+        <v>8767</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23629</v>
+        <v>23415</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05622048621519987</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03366437409262988</v>
+        <v>0.03296685878262295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08885558084619691</v>
+        <v>0.08804940158776944</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>29</v>
@@ -5512,19 +5512,19 @@
         <v>28692</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20388</v>
+        <v>19862</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39779</v>
+        <v>41558</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02725870017640141</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01936994521741189</v>
+        <v>0.01887003886838708</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03779177954357014</v>
+        <v>0.03948197420815723</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>44</v>
@@ -5533,19 +5533,19 @@
         <v>43642</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32341</v>
+        <v>31696</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57792</v>
+        <v>56266</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03309997667220973</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02452875774550616</v>
+        <v>0.02403921828796988</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04383161452943725</v>
+        <v>0.04267385287327874</v>
       </c>
     </row>
     <row r="33">
@@ -5637,19 +5637,19 @@
         <v>555303</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>513719</v>
+        <v>511839</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>602380</v>
+        <v>604551</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1654446684942847</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1530553441025325</v>
+        <v>0.1524953803485359</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.179470788755303</v>
+        <v>0.1801174294877362</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>666</v>
@@ -5658,19 +5658,19 @@
         <v>714991</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>665777</v>
+        <v>669037</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>766148</v>
+        <v>764624</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2102678837314265</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1957946741005049</v>
+        <v>0.1967533906436132</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2253124429032528</v>
+        <v>0.224864149966152</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1176</v>
@@ -5679,19 +5679,19 @@
         <v>1270294</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1202960</v>
+        <v>1208212</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1334246</v>
+        <v>1344275</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1880020748916954</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1780367294620193</v>
+        <v>0.1788140383872156</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.197466911972201</v>
+        <v>0.1989512610055652</v>
       </c>
     </row>
     <row r="35">
@@ -5708,19 +5708,19 @@
         <v>1641382</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1582415</v>
+        <v>1583059</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1704796</v>
+        <v>1703114</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4890265759646444</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4714582255209649</v>
+        <v>0.4716501419186649</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5079201632984087</v>
+        <v>0.5074190348416231</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1046</v>
@@ -5729,19 +5729,19 @@
         <v>1131098</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1078401</v>
+        <v>1078124</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1191396</v>
+        <v>1189910</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3326385751219295</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3171410462854695</v>
+        <v>0.3170597605324225</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3503711104002945</v>
+        <v>0.3499342912614429</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2582</v>
@@ -5750,19 +5750,19 @@
         <v>2772480</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2690775</v>
+        <v>2681679</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2855502</v>
+        <v>2855250</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4103238842450962</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.39823162065748</v>
+        <v>0.3968854738942009</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4226111079703136</v>
+        <v>0.4225738001350265</v>
       </c>
     </row>
     <row r="36">
@@ -5779,19 +5779,19 @@
         <v>1128686</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1070645</v>
+        <v>1070043</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1185771</v>
+        <v>1181930</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3362760062415764</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3189837920329434</v>
+        <v>0.3188042656169469</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3532837279967393</v>
+        <v>0.3521393544873143</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1355</v>
@@ -5800,19 +5800,19 @@
         <v>1470504</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1412891</v>
+        <v>1406351</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1535152</v>
+        <v>1529284</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4324527341705349</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4155095294682566</v>
+        <v>0.4135861362809472</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4514646344509717</v>
+        <v>0.4497390002338152</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2424</v>
@@ -5821,19 +5821,19 @@
         <v>2599190</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2524763</v>
+        <v>2515456</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2686183</v>
+        <v>2684875</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3846772091983203</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3736621512929897</v>
+        <v>0.3722846452000279</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3975520026532405</v>
+        <v>0.39735855792606</v>
       </c>
     </row>
     <row r="37">
@@ -5850,19 +5850,19 @@
         <v>31056</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>22045</v>
+        <v>22134</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>43143</v>
+        <v>44032</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009252749299494507</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.006568103479476469</v>
+        <v>0.006594437985179299</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01285394545935347</v>
+        <v>0.01311880872814106</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>82</v>
@@ -5871,19 +5871,19 @@
         <v>83788</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>67588</v>
+        <v>65585</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>102251</v>
+        <v>101297</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02464080697610911</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01987660000255634</v>
+        <v>0.01928750516637602</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03007032383570276</v>
+        <v>0.02978983291429389</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>113</v>
@@ -5892,19 +5892,19 @@
         <v>114844</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>95451</v>
+        <v>95352</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>137262</v>
+        <v>136529</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01699683166488809</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01412656825075777</v>
+        <v>0.01411194386544217</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02031458226103974</v>
+        <v>0.02020620528355892</v>
       </c>
     </row>
     <row r="38">
@@ -6238,19 +6238,19 @@
         <v>70669</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>55757</v>
+        <v>56750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86124</v>
+        <v>89384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1668411617632108</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1316344705159289</v>
+        <v>0.1339787924210724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2033283199590162</v>
+        <v>0.2110240936422757</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -6259,19 +6259,19 @@
         <v>36702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25302</v>
+        <v>25452</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50322</v>
+        <v>49179</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1092864672898516</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07533953784429562</v>
+        <v>0.07578751883754452</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1498411480799915</v>
+        <v>0.1464376842204309</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -6280,19 +6280,19 @@
         <v>107372</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89455</v>
+        <v>90431</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>129683</v>
+        <v>129505</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1413885412736547</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1177954808092187</v>
+        <v>0.1190803408704095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.170768434804144</v>
+        <v>0.1705333532663233</v>
       </c>
     </row>
     <row r="5">
@@ -6309,19 +6309,19 @@
         <v>179026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158055</v>
+        <v>157850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>199571</v>
+        <v>202523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4226576534416629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3731481331733083</v>
+        <v>0.3726631814668059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4711609601145282</v>
+        <v>0.4781312100838669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -6330,19 +6330,19 @@
         <v>99062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82547</v>
+        <v>82947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116048</v>
+        <v>116697</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2949715751983795</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2457963315755581</v>
+        <v>0.2469875230477774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.345549904390571</v>
+        <v>0.3474818389286112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>259</v>
@@ -6351,19 +6351,19 @@
         <v>278088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>249817</v>
+        <v>249899</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>303271</v>
+        <v>304172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3661905777137153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3289628983012727</v>
+        <v>0.3290705622749739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3993509569375807</v>
+        <v>0.4005381430394772</v>
       </c>
     </row>
     <row r="6">
@@ -6380,19 +6380,19 @@
         <v>171133</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>151096</v>
+        <v>148730</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>192503</v>
+        <v>189638</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4040222707510818</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3567183885932406</v>
+        <v>0.3511307591440415</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4544747295693336</v>
+        <v>0.4477096725139565</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>186</v>
@@ -6401,19 +6401,19 @@
         <v>191836</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>172834</v>
+        <v>171998</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>210581</v>
+        <v>210521</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.571219654006749</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5146388609950747</v>
+        <v>0.5121502524462408</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6270341978668882</v>
+        <v>0.6268561905771958</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>345</v>
@@ -6422,19 +6422,19 @@
         <v>362969</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>333793</v>
+        <v>335566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>389474</v>
+        <v>390863</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4779625736541436</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.439543735992489</v>
+        <v>0.4418772392232813</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5128647461780248</v>
+        <v>0.5146939632003649</v>
       </c>
     </row>
     <row r="7">
@@ -6454,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8969</v>
+        <v>10153</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006478914044044514</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02117566728072424</v>
+        <v>0.02396886795005024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -6472,19 +6472,19 @@
         <v>8235</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3866</v>
+        <v>3770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15929</v>
+        <v>16462</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02452230350501994</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01151081217533401</v>
+        <v>0.01122706285522011</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04743107958076275</v>
+        <v>0.04901936268904802</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -6493,19 +6493,19 @@
         <v>10980</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5472</v>
+        <v>5500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19058</v>
+        <v>19279</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01445830735848633</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00720581534903368</v>
+        <v>0.007241869226139916</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02509552113404879</v>
+        <v>0.02538654516449315</v>
       </c>
     </row>
     <row r="8">
@@ -6597,19 +6597,19 @@
         <v>52908</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40335</v>
+        <v>39551</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>66430</v>
+        <v>67637</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.14433808440945</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1100390660307102</v>
+        <v>0.1078982864609612</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1812286134590087</v>
+        <v>0.1845211292829398</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>32</v>
@@ -6618,19 +6618,19 @@
         <v>36182</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24835</v>
+        <v>25148</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48615</v>
+        <v>49323</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1000025812679534</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06864167393604474</v>
+        <v>0.06950757177807436</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1343681767837434</v>
+        <v>0.136325665087819</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>82</v>
@@ -6639,19 +6639,19 @@
         <v>89089</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>72072</v>
+        <v>72291</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>107913</v>
+        <v>107865</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1223148851445624</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09895072755032699</v>
+        <v>0.09925145179245828</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1481591278801202</v>
+        <v>0.1480928741213726</v>
       </c>
     </row>
     <row r="10">
@@ -6668,19 +6668,19 @@
         <v>165291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146711</v>
+        <v>144531</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184098</v>
+        <v>184062</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4509314591714194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4002429458983301</v>
+        <v>0.3942967242672133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5022381061691754</v>
+        <v>0.5021390265234358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -6689,19 +6689,19 @@
         <v>110592</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94683</v>
+        <v>93113</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129061</v>
+        <v>128359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.30566736505069</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2616956560454871</v>
+        <v>0.2573553728867784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3567134493072111</v>
+        <v>0.3547739234053223</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>258</v>
@@ -6710,19 +6710,19 @@
         <v>275884</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>248999</v>
+        <v>248303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>300971</v>
+        <v>302942</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3787730338876455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3418615878097024</v>
+        <v>0.3409071695156208</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4132170607465383</v>
+        <v>0.4159225924578734</v>
       </c>
     </row>
     <row r="11">
@@ -6739,19 +6739,19 @@
         <v>144643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126543</v>
+        <v>127472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164177</v>
+        <v>166306</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3946023524012988</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3452221324561331</v>
+        <v>0.3477556061195585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4478922136503942</v>
+        <v>0.4537005463688283</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -6760,19 +6760,19 @@
         <v>211741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>191931</v>
+        <v>191296</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>230671</v>
+        <v>229467</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5852322482324274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5304816027408916</v>
+        <v>0.5287248060806706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6375552371607184</v>
+        <v>0.6342265454486055</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>340</v>
@@ -6781,19 +6781,19 @@
         <v>356384</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>330809</v>
+        <v>328768</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>384323</v>
+        <v>384721</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4892957670296363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4541832280588727</v>
+        <v>0.451381181977022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5276549555518536</v>
+        <v>0.5282005388782816</v>
       </c>
     </row>
     <row r="12">
@@ -6810,19 +6810,19 @@
         <v>3713</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>931</v>
+        <v>982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9114</v>
+        <v>9748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01012810401783189</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00254022625139222</v>
+        <v>0.002679969582588057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02486359865289851</v>
+        <v>0.02659290666821655</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -6831,19 +6831,19 @@
         <v>3292</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9035</v>
+        <v>9742</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0090978054489293</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.002587558115712841</v>
+        <v>0.00261377579186567</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0249722448608374</v>
+        <v>0.02692650743504794</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -6852,19 +6852,19 @@
         <v>7004</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2811</v>
+        <v>2951</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13825</v>
+        <v>14531</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009616313938155709</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.00385903470178608</v>
+        <v>0.00405121769581244</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01898042895412378</v>
+        <v>0.0199508672131536</v>
       </c>
     </row>
     <row r="13">
@@ -6956,19 +6956,19 @@
         <v>87532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71310</v>
+        <v>71047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>105450</v>
+        <v>106695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.174027855400122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.141776348735865</v>
+        <v>0.1412533884116894</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2096512596407166</v>
+        <v>0.2121267378640607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -6977,19 +6977,19 @@
         <v>27432</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17389</v>
+        <v>18688</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38199</v>
+        <v>38133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.175907426264856</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1115036216482568</v>
+        <v>0.1198359600567594</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2449444501543031</v>
+        <v>0.2445235168865501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>109</v>
@@ -6998,19 +6998,19 @@
         <v>114964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95399</v>
+        <v>96577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134429</v>
+        <v>136895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1744726952215815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1447800715182116</v>
+        <v>0.1465675262093925</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2040127577904994</v>
+        <v>0.2077558608820354</v>
       </c>
     </row>
     <row r="15">
@@ -7027,19 +7027,19 @@
         <v>242958</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>220486</v>
+        <v>219102</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>263620</v>
+        <v>266452</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.483041437206436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4383637726415164</v>
+        <v>0.435612209298768</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5241198240037005</v>
+        <v>0.5297508011891846</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>59</v>
@@ -7048,19 +7048,19 @@
         <v>63810</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>51797</v>
+        <v>52355</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>78367</v>
+        <v>77600</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4091774856002326</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3321437916907932</v>
+        <v>0.3357215969436337</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5025186659291827</v>
+        <v>0.4976004151870942</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>293</v>
@@ -7069,19 +7069,19 @@
         <v>306769</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>280147</v>
+        <v>279647</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>332699</v>
+        <v>332884</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4655599856361359</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4251579754137899</v>
+        <v>0.4243993931485108</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5049124160087186</v>
+        <v>0.5051925890114035</v>
       </c>
     </row>
     <row r="16">
@@ -7098,19 +7098,19 @@
         <v>170463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150746</v>
+        <v>147379</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191162</v>
+        <v>191219</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3389089625843255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2997082773829077</v>
+        <v>0.2930146635783818</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3800623503428774</v>
+        <v>0.3801753649054233</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -7119,19 +7119,19 @@
         <v>63781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51873</v>
+        <v>51028</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77075</v>
+        <v>77295</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4089885855435294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3326272026951124</v>
+        <v>0.3272127869191374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4942346365353754</v>
+        <v>0.4956490667211029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>223</v>
@@ -7140,19 +7140,19 @@
         <v>234244</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209303</v>
+        <v>208636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>260686</v>
+        <v>260638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3554947735000161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3176439466495113</v>
+        <v>0.3166321051330592</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.395624474640027</v>
+        <v>0.3955508967038959</v>
       </c>
     </row>
     <row r="17">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6209</v>
+        <v>6321</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004021744809116443</v>
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01234458600021732</v>
+        <v>0.01256644986344133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5969</v>
+        <v>5636</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005926502591381975</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03827351784633441</v>
+        <v>0.03613979762224131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -7211,19 +7211,19 @@
         <v>2947</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7750</v>
+        <v>8075</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004472545642266432</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001405840872723561</v>
+        <v>0.001396916416432151</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01176085221622476</v>
+        <v>0.01225512073118501</v>
       </c>
     </row>
     <row r="18">
@@ -7315,19 +7315,19 @@
         <v>211194</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185854</v>
+        <v>184979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>239296</v>
+        <v>238538</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1907247502640987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1678401699867035</v>
+        <v>0.1670499879222814</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2161027316428017</v>
+        <v>0.2154184144195474</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -7336,19 +7336,19 @@
         <v>121101</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>101562</v>
+        <v>101253</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143644</v>
+        <v>142083</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1545362747972011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1296019957036865</v>
+        <v>0.1292085154843929</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1833032797209979</v>
+        <v>0.1813112472164728</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>312</v>
@@ -7357,19 +7357,19 @@
         <v>332295</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>297621</v>
+        <v>301367</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>364434</v>
+        <v>369758</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1757277577276194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1573910379430903</v>
+        <v>0.1593719657560137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1927236925389909</v>
+        <v>0.1955393539584112</v>
       </c>
     </row>
     <row r="20">
@@ -7386,19 +7386,19 @@
         <v>527231</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>491805</v>
+        <v>495002</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>559751</v>
+        <v>560447</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4761301532306443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4441380223587917</v>
+        <v>0.4470253968043325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5054979844255408</v>
+        <v>0.5061269812311245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>238</v>
@@ -7407,19 +7407,19 @@
         <v>245641</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221833</v>
+        <v>221189</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273894</v>
+        <v>273508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3134606145363011</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2830800058404304</v>
+        <v>0.2822571578522753</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.349514617126689</v>
+        <v>0.3490217759337629</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>746</v>
@@ -7428,19 +7428,19 @@
         <v>772872</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>732886</v>
+        <v>731456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>821935</v>
+        <v>816808</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.408717701442143</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3875718798036278</v>
+        <v>0.3868157949998233</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.43466392376129</v>
+        <v>0.4319523518945862</v>
       </c>
     </row>
     <row r="21">
@@ -7457,19 +7457,19 @@
         <v>364160</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>334532</v>
+        <v>334903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>398567</v>
+        <v>396277</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3288643936650636</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3021082161851737</v>
+        <v>0.3024429095090952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3599367608039888</v>
+        <v>0.3578691187791926</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>376</v>
@@ -7478,19 +7478,19 @@
         <v>385270</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>356200</v>
+        <v>357721</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>414455</v>
+        <v>412309</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4916398879999858</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4545437562220342</v>
+        <v>0.4564858575380342</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5288827792353744</v>
+        <v>0.5261440916801646</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>726</v>
@@ -7499,19 +7499,19 @@
         <v>749429</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>701767</v>
+        <v>702487</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>791274</v>
+        <v>792758</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3963207549007152</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3711155020925457</v>
+        <v>0.3714961112593105</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4184492803098904</v>
+        <v>0.4192341962948574</v>
       </c>
     </row>
     <row r="22">
@@ -7528,19 +7528,19 @@
         <v>4740</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1721</v>
+        <v>1787</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10448</v>
+        <v>9967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004280702840193341</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001553816847993201</v>
+        <v>0.001614126954639602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009435688715614772</v>
+        <v>0.009001123007373917</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -7549,19 +7549,19 @@
         <v>31630</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21271</v>
+        <v>21890</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44241</v>
+        <v>44243</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04036322266651203</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0271439350828012</v>
+        <v>0.02793405908312929</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05645598008607372</v>
+        <v>0.05645792562099641</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -7570,19 +7570,19 @@
         <v>36370</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26114</v>
+        <v>25338</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49026</v>
+        <v>48639</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01923378592952245</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01381007455990588</v>
+        <v>0.01339925198804721</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02592634442165829</v>
+        <v>0.02572172594298093</v>
       </c>
     </row>
     <row r="23">
@@ -7674,19 +7674,19 @@
         <v>120494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>101560</v>
+        <v>101849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>141659</v>
+        <v>141180</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2048019111727865</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1726203337364964</v>
+        <v>0.1731104504663644</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2407751796864826</v>
+        <v>0.2399610953996158</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>157</v>
@@ -7695,19 +7695,19 @@
         <v>168670</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>145700</v>
+        <v>147155</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>193262</v>
+        <v>194395</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2452664754268003</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2118646418646803</v>
+        <v>0.2139805726974358</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2810255925499222</v>
+        <v>0.2826734804178375</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>272</v>
@@ -7716,19 +7716,19 @@
         <v>289164</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>259074</v>
+        <v>258960</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>321454</v>
+        <v>322763</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2266095152840243</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2030289648658919</v>
+        <v>0.2029396208284642</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2519144339259052</v>
+        <v>0.2529401408926718</v>
       </c>
     </row>
     <row r="25">
@@ -7745,19 +7745,19 @@
         <v>254434</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>231582</v>
+        <v>228617</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>276502</v>
+        <v>277032</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.432457281737693</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3936166503728476</v>
+        <v>0.3885772416895274</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4699652318442057</v>
+        <v>0.4708663023141356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -7766,19 +7766,19 @@
         <v>254656</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>231835</v>
+        <v>229830</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280968</v>
+        <v>282369</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3703011366511541</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3371166530231352</v>
+        <v>0.3341999194910869</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.408560566903141</v>
+        <v>0.4105981224146704</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>496</v>
@@ -7787,19 +7787,19 @@
         <v>509091</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>471760</v>
+        <v>477233</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>542528</v>
+        <v>545341</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3989594144032279</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3697043277401209</v>
+        <v>0.3739936608896925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4251634060648038</v>
+        <v>0.4273678490327329</v>
       </c>
     </row>
     <row r="26">
@@ -7816,19 +7816,19 @@
         <v>209153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>186335</v>
+        <v>184498</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>232101</v>
+        <v>232612</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3554932944918347</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3167104613351678</v>
+        <v>0.3135878768983865</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3944989544023663</v>
+        <v>0.3953661032491924</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>239</v>
@@ -7837,19 +7837,19 @@
         <v>250690</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>225171</v>
+        <v>224379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>277250</v>
+        <v>276541</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3645332872326807</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3274250863983598</v>
+        <v>0.3262736312290788</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4031551947648582</v>
+        <v>0.4021244693997028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>435</v>
@@ -7858,19 +7858,19 @@
         <v>459843</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>426170</v>
+        <v>423584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>496716</v>
+        <v>495741</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3603652259334609</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3339772723720355</v>
+        <v>0.3319506758720661</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3892619984406825</v>
+        <v>0.3884979098381571</v>
       </c>
     </row>
     <row r="27">
@@ -7887,19 +7887,19 @@
         <v>4264</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1127</v>
+        <v>1082</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>10657</v>
+        <v>10240</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.007247512597685779</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.001915364320147324</v>
+        <v>0.00183911831251974</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01811370580140028</v>
+        <v>0.0174054622309087</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -7908,19 +7908,19 @@
         <v>13685</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7397</v>
+        <v>7666</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22542</v>
+        <v>22724</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01989910068936482</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01075608433811489</v>
+        <v>0.01114746445082699</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03277849709789728</v>
+        <v>0.03304396468745531</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>17</v>
@@ -7929,19 +7929,19 @@
         <v>17949</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10889</v>
+        <v>11150</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>28240</v>
+        <v>29604</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01406584437928698</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.00853332447095412</v>
+        <v>0.008737860436023032</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0221306944212981</v>
+        <v>0.02319973850613764</v>
       </c>
     </row>
     <row r="28">
@@ -8033,19 +8033,19 @@
         <v>13698</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7461</v>
+        <v>7114</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21913</v>
+        <v>22150</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04934480064717085</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02687833951878806</v>
+        <v>0.02562797393116526</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07893585441394052</v>
+        <v>0.07979256509445375</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>204</v>
@@ -8054,19 +8054,19 @@
         <v>231158</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>205398</v>
+        <v>204245</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>260797</v>
+        <v>260234</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2301342775337397</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2044878273925947</v>
+        <v>0.2033400919361776</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2596415754914865</v>
+        <v>0.2590814660086658</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>217</v>
@@ -8075,19 +8075,19 @@
         <v>244856</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>217406</v>
+        <v>216527</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>274608</v>
+        <v>277155</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1909883331897199</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1695774776810595</v>
+        <v>0.1688913852227031</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2141946722977287</v>
+        <v>0.2161816700293673</v>
       </c>
     </row>
     <row r="30">
@@ -8104,19 +8104,19 @@
         <v>59113</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46297</v>
+        <v>46823</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72300</v>
+        <v>73672</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2129450268162782</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1667770244205244</v>
+        <v>0.168671996294567</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2604459804924518</v>
+        <v>0.2653909450316986</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>309</v>
@@ -8125,19 +8125,19 @@
         <v>341305</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>310896</v>
+        <v>311278</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>371686</v>
+        <v>370095</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3397928536776242</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3095187669438204</v>
+        <v>0.3098988748564734</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.370039436773525</v>
+        <v>0.3684555714522917</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>366</v>
@@ -8146,19 +8146,19 @@
         <v>400418</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>368646</v>
+        <v>368800</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>432721</v>
+        <v>435869</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3123267751425908</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2875447863246737</v>
+        <v>0.2876650688870986</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3375236229859121</v>
+        <v>0.3399787829613367</v>
       </c>
     </row>
     <row r="31">
@@ -8175,19 +8175,19 @@
         <v>192554</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>177019</v>
+        <v>177056</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>207249</v>
+        <v>207357</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6936415531861343</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6376798224050249</v>
+        <v>0.6378137039103611</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7465781819066166</v>
+        <v>0.746965308690629</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>389</v>
@@ -8196,19 +8196,19 @@
         <v>407283</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>375821</v>
+        <v>374949</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>438577</v>
+        <v>439704</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4054786974619228</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3741561307306722</v>
+        <v>0.3732880235772976</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4366345814509078</v>
+        <v>0.4377565446641049</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>570</v>
@@ -8217,19 +8217,19 @@
         <v>599837</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>565668</v>
+        <v>560380</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>637241</v>
+        <v>636935</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4678739613149807</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4412218975615634</v>
+        <v>0.4370977497672796</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4970492605770224</v>
+        <v>0.4968106293813088</v>
       </c>
     </row>
     <row r="32">
@@ -8246,19 +8246,19 @@
         <v>12233</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6926</v>
+        <v>6773</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>21462</v>
+        <v>20095</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04406861935041664</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02495061724823276</v>
+        <v>0.02439701560050931</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07731381285165546</v>
+        <v>0.0723895266547553</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -8267,19 +8267,19 @@
         <v>24704</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>16811</v>
+        <v>16595</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>35043</v>
+        <v>35928</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02459417132671333</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0167367015747506</v>
+        <v>0.01652173647929032</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03488807467760044</v>
+        <v>0.03576866426870182</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>37</v>
@@ -8288,19 +8288,19 @@
         <v>36937</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>26107</v>
+        <v>25841</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>50519</v>
+        <v>49576</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02881093035270856</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02036376360001063</v>
+        <v>0.02015566873764476</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03940477738947105</v>
+        <v>0.03866913818046774</v>
       </c>
     </row>
     <row r="33">
@@ -8392,19 +8392,19 @@
         <v>556496</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>513543</v>
+        <v>511202</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>601879</v>
+        <v>603578</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1703711198961564</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1572212782994286</v>
+        <v>0.1565045102288575</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1842652901561348</v>
+        <v>0.1847853401437039</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>565</v>
@@ -8413,19 +8413,19 @@
         <v>621246</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>577288</v>
+        <v>575308</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>675434</v>
+        <v>670065</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1865948459024142</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1733919448246533</v>
+        <v>0.1727971204172088</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2028705908352822</v>
+        <v>0.2012580226221104</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1090</v>
@@ -8434,19 +8434,19 @@
         <v>1177741</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1114868</v>
+        <v>1108357</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1240159</v>
+        <v>1249103</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1785604751413033</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1690281179010548</v>
+        <v>0.1680409240205929</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1880237963215373</v>
+        <v>0.1893798048893766</v>
       </c>
     </row>
     <row r="35">
@@ -8463,19 +8463,19 @@
         <v>1428054</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1369710</v>
+        <v>1368319</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1490601</v>
+        <v>1488935</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4371986922797494</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4193365691613122</v>
+        <v>0.4189108415895563</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.456347374984043</v>
+        <v>0.4558373957313437</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1049</v>
@@ -8484,19 +8484,19 @@
         <v>1115067</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1058266</v>
+        <v>1054010</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1170970</v>
+        <v>1171876</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3349170277598141</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3178565001303104</v>
+        <v>0.3165782256076476</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3517078921342172</v>
+        <v>0.3519799053173586</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2418</v>
@@ -8505,19 +8505,19 @@
         <v>2543121</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2463402</v>
+        <v>2464523</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2625650</v>
+        <v>2625919</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3855693140779972</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3734829626391657</v>
+        <v>0.3736529706280243</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3980817337059487</v>
+        <v>0.3981226199082812</v>
       </c>
     </row>
     <row r="36">
@@ -8534,19 +8534,19 @@
         <v>1252106</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1196580</v>
+        <v>1195412</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1310764</v>
+        <v>1312085</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3833322630807172</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3663329711669013</v>
+        <v>0.3659752640462047</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4012904057071716</v>
+        <v>0.4016948148877433</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1452</v>
@@ -8555,19 +8555,19 @@
         <v>1510600</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1449353</v>
+        <v>1451054</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1569687</v>
+        <v>1572449</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4537177978163555</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4353218121346152</v>
+        <v>0.435832734546047</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4714650787423947</v>
+        <v>0.4722944762762447</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2639</v>
@@ -8576,19 +8576,19 @@
         <v>2762706</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2686309</v>
+        <v>2683810</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2842013</v>
+        <v>2843801</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4188612252838163</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.407278447769916</v>
+        <v>0.4068995600443556</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4308851652243967</v>
+        <v>0.4311562464073233</v>
       </c>
     </row>
     <row r="37">
@@ -8605,19 +8605,19 @@
         <v>29717</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20309</v>
+        <v>19843</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41563</v>
+        <v>41270</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.009097924743377006</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.00621756047191608</v>
+        <v>0.006074945001947198</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01272461296477232</v>
+        <v>0.01263489393492079</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>82</v>
@@ -8626,19 +8626,19 @@
         <v>82470</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>67208</v>
+        <v>66947</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>102904</v>
+        <v>101713</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02477032852141618</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.020186309823669</v>
+        <v>0.02010796820759335</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03090785266085046</v>
+        <v>0.03055007025287682</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>111</v>
@@ -8647,19 +8647,19 @@
         <v>112187</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>92129</v>
+        <v>93159</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>132249</v>
+        <v>136456</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01700898549688327</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01396792627631246</v>
+        <v>0.01412410725379284</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02005061848133245</v>
+        <v>0.02068850275362429</v>
       </c>
     </row>
     <row r="38">
@@ -8993,19 +8993,19 @@
         <v>71950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58381</v>
+        <v>57626</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91540</v>
+        <v>89142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1335937766459145</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1083991749941045</v>
+        <v>0.1069974049069095</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1699683225156786</v>
+        <v>0.1655169302901658</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -9014,19 +9014,19 @@
         <v>43434</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33855</v>
+        <v>33886</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55067</v>
+        <v>54782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09134383455665566</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07120006662182676</v>
+        <v>0.07126421138692865</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1158081439893929</v>
+        <v>0.1152094837976204</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -9035,19 +9035,19 @@
         <v>115383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97141</v>
+        <v>96350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135464</v>
+        <v>135431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1137827109736853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09579322676935122</v>
+        <v>0.09501327513299022</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1335848262750848</v>
+        <v>0.133552481518374</v>
       </c>
     </row>
     <row r="5">
@@ -9064,19 +9064,19 @@
         <v>241497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>216716</v>
+        <v>218493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266540</v>
+        <v>266960</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.448404545210956</v>
+        <v>0.4484045452109559</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4023906080227025</v>
+        <v>0.4056907234687922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4949032113472993</v>
+        <v>0.495682376304986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>181</v>
@@ -9085,19 +9085,19 @@
         <v>122930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>105827</v>
+        <v>108075</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139425</v>
+        <v>139542</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2585291846943223</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2225611638779379</v>
+        <v>0.227288906271252</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2932191549293601</v>
+        <v>0.2934652609503274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>433</v>
@@ -9106,19 +9106,19 @@
         <v>364427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>329956</v>
+        <v>333954</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390659</v>
+        <v>395680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3593716838454595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3253785103916746</v>
+        <v>0.3293214215764195</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3852399040977639</v>
+        <v>0.3901908183432861</v>
       </c>
     </row>
     <row r="6">
@@ -9135,19 +9135,19 @@
         <v>223086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199752</v>
+        <v>197874</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>249349</v>
+        <v>247066</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.414219895421861</v>
+        <v>0.4142198954218609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3708927736579756</v>
+        <v>0.3674056689852307</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4629832036438161</v>
+        <v>0.4587435783110551</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>412</v>
@@ -9156,19 +9156,19 @@
         <v>302635</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>285378</v>
+        <v>285082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>322438</v>
+        <v>317887</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.636458265136868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6001657819328323</v>
+        <v>0.5995449997463578</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6781053156955658</v>
+        <v>0.668535406780863</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>621</v>
@@ -9177,19 +9177,19 @@
         <v>525721</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>495636</v>
+        <v>494890</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>558097</v>
+        <v>555216</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.518427823754915</v>
+        <v>0.5184278237549149</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4887610057071441</v>
+        <v>0.4880252762081061</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5503552417501731</v>
+        <v>0.547513873051619</v>
       </c>
     </row>
     <row r="7">
@@ -9209,16 +9209,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7128</v>
+        <v>6441</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.00378178272126868</v>
+        <v>0.003781782721268679</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01323417054583743</v>
+        <v>0.01195944218360136</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -9227,19 +9227,19 @@
         <v>6499</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3061</v>
+        <v>3247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12186</v>
+        <v>10951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01366871561215413</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006436702196960606</v>
+        <v>0.006828243617114386</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02562827764295735</v>
+        <v>0.02303038900501081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -9248,19 +9248,19 @@
         <v>8536</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4444</v>
+        <v>4559</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15051</v>
+        <v>14702</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.008417781425940305</v>
+        <v>0.008417781425940303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00438242536514361</v>
+        <v>0.004496038032786285</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01484192190386909</v>
+        <v>0.01449759852521029</v>
       </c>
     </row>
     <row r="8">
@@ -9352,19 +9352,19 @@
         <v>82074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66096</v>
+        <v>66798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>101730</v>
+        <v>102385</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1722318534803904</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1387024223096466</v>
+        <v>0.1401752440645002</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2134813846427162</v>
+        <v>0.2148553588439175</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>83</v>
@@ -9373,19 +9373,19 @@
         <v>55437</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>44646</v>
+        <v>44943</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>67986</v>
+        <v>67820</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1336851313599474</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1076613663101942</v>
+        <v>0.108377589757769</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1639468942164777</v>
+        <v>0.1635469088515656</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>166</v>
@@ -9394,19 +9394,19 @@
         <v>137511</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>118745</v>
+        <v>117484</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>158340</v>
+        <v>159303</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1542959536059731</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1332397522068191</v>
+        <v>0.1318244350624083</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1776675974122199</v>
+        <v>0.1787482894984996</v>
       </c>
     </row>
     <row r="10">
@@ -9423,19 +9423,19 @@
         <v>203274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>181389</v>
+        <v>179897</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226340</v>
+        <v>226223</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4265720806572689</v>
+        <v>0.426572080657269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.380645659533816</v>
+        <v>0.3775145152660559</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4749763372465574</v>
+        <v>0.4747296054060046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -9444,19 +9444,19 @@
         <v>137204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120158</v>
+        <v>121984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>153489</v>
+        <v>154626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3308633382139821</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2897563073892344</v>
+        <v>0.2941598437323918</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3701330342036311</v>
+        <v>0.3728752909580265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>414</v>
@@ -9465,19 +9465,19 @@
         <v>340478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>311438</v>
+        <v>312854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>367540</v>
+        <v>369643</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3820385294980955</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3494531807360515</v>
+        <v>0.351042036400033</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4124039370124868</v>
+        <v>0.4147629860538481</v>
       </c>
     </row>
     <row r="11">
@@ -9494,19 +9494,19 @@
         <v>190582</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>170027</v>
+        <v>166677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>213686</v>
+        <v>213837</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3999372720697545</v>
+        <v>0.3999372720697546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3568025542907789</v>
+        <v>0.3497717381165759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.448420575215059</v>
+        <v>0.4487384241368109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>281</v>
@@ -9515,19 +9515,19 @@
         <v>211664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>194753</v>
+        <v>193531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>228107</v>
+        <v>228932</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5104222615563421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4696417088954269</v>
+        <v>0.4666947658514056</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5500720696929056</v>
+        <v>0.552062021427001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>455</v>
@@ -9536,19 +9536,19 @@
         <v>402246</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>374455</v>
+        <v>376847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>431348</v>
+        <v>433770</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4513462531723664</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4201629604544136</v>
+        <v>0.4228468784309714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4839999503931516</v>
+        <v>0.4867183109082132</v>
       </c>
     </row>
     <row r="12">
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3073</v>
+        <v>2982</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001258793792586153</v>
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.006448074339433839</v>
+        <v>0.006258636342796131</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -9586,19 +9586,19 @@
         <v>10379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5941</v>
+        <v>5483</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17612</v>
+        <v>17750</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02502926886972846</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01432660044442422</v>
+        <v>0.01322168604029013</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04247198556455744</v>
+        <v>0.04280269435218288</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -9607,19 +9607,19 @@
         <v>10979</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6201</v>
+        <v>6427</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18693</v>
+        <v>18314</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.012319263723565</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006957618883473527</v>
+        <v>0.007211326806332811</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02097478130228496</v>
+        <v>0.0205499919124256</v>
       </c>
     </row>
     <row r="13">
@@ -9711,19 +9711,19 @@
         <v>92521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>77825</v>
+        <v>76466</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110107</v>
+        <v>111204</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.200369509066796</v>
+        <v>0.2003695090667961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1685418507307184</v>
+        <v>0.1656001873224551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2384540715096949</v>
+        <v>0.2408290686898413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -9732,19 +9732,19 @@
         <v>27538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20114</v>
+        <v>20343</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35444</v>
+        <v>35867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1511274258011246</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1103865717164384</v>
+        <v>0.1116404138754153</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1945148327256089</v>
+        <v>0.196835159771991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>147</v>
@@ -9753,19 +9753,19 @@
         <v>120059</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>103410</v>
+        <v>102653</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>139031</v>
+        <v>140664</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1864360685070722</v>
+        <v>0.1864360685070723</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.160581746250205</v>
+        <v>0.1594063163053125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2158972151921131</v>
+        <v>0.218433575970739</v>
       </c>
     </row>
     <row r="15">
@@ -9782,19 +9782,19 @@
         <v>224263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>202423</v>
+        <v>202137</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>247289</v>
+        <v>246765</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4856776640445203</v>
+        <v>0.4856776640445205</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4383801468248885</v>
+        <v>0.4377604399888857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5355430680154089</v>
+        <v>0.5344098280969002</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>93</v>
@@ -9803,19 +9803,19 @@
         <v>57223</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47830</v>
+        <v>47424</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>67770</v>
+        <v>68730</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3140398203105467</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2624892975611938</v>
+        <v>0.2602643387203402</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3719220896256916</v>
+        <v>0.3771907670184418</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>324</v>
@@ -9824,19 +9824,19 @@
         <v>281486</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>256158</v>
+        <v>258265</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>305906</v>
+        <v>306621</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4371113659745583</v>
+        <v>0.4371113659745584</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.397779574507176</v>
+        <v>0.4010525568250928</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.475032464446015</v>
+        <v>0.4761431157219946</v>
       </c>
     </row>
     <row r="16">
@@ -9853,19 +9853,19 @@
         <v>143188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>123692</v>
+        <v>124203</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>165046</v>
+        <v>168809</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3100967424142869</v>
+        <v>0.310096742414287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2678744603450282</v>
+        <v>0.2689822101993003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3574334940368824</v>
+        <v>0.3655818486362949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -9874,19 +9874,19 @@
         <v>91308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>81238</v>
+        <v>79198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103918</v>
+        <v>102028</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5010971424102791</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4458352214530288</v>
+        <v>0.4346354650546633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5702996125294111</v>
+        <v>0.5599273370378276</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -9895,19 +9895,19 @@
         <v>234496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>210554</v>
+        <v>212064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>256635</v>
+        <v>259711</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3641418303499333</v>
+        <v>0.3641418303499334</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3269625871396856</v>
+        <v>0.3293082186096734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3985200041032946</v>
+        <v>0.4032973935524676</v>
       </c>
     </row>
     <row r="17">
@@ -9927,16 +9927,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6550</v>
+        <v>6685</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.003856084474396557</v>
+        <v>0.003856084474396558</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01418479955122235</v>
+        <v>0.0144770700440111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -9945,19 +9945,19 @@
         <v>6147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1954</v>
+        <v>1929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17753</v>
+        <v>17561</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03373561147804965</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01072188922880981</v>
+        <v>0.01058862703123592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09742974701378704</v>
+        <v>0.09637473689057433</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -9966,19 +9966,19 @@
         <v>7928</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2962</v>
+        <v>3062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19987</v>
+        <v>18248</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01231073516843613</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.004599374166170208</v>
+        <v>0.004754657617625397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03103773215349992</v>
+        <v>0.02833605211303891</v>
       </c>
     </row>
     <row r="18">
@@ -10070,19 +10070,19 @@
         <v>215105</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>190022</v>
+        <v>188233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243030</v>
+        <v>241061</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.193465165309077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1709061902308166</v>
+        <v>0.1692968412194221</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2185810022678949</v>
+        <v>0.2168106446630938</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>211</v>
@@ -10091,19 +10091,19 @@
         <v>139555</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>120752</v>
+        <v>121453</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>157322</v>
+        <v>159793</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1658943056523814</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1435424134800827</v>
+        <v>0.1443757917683623</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1870152484261602</v>
+        <v>0.1899518305144247</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>438</v>
@@ -10112,19 +10112,19 @@
         <v>354660</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>323397</v>
+        <v>321857</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>389249</v>
+        <v>392191</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1815898806681484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1655832408150638</v>
+        <v>0.1647944119830821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1992998325571838</v>
+        <v>0.2008065280771458</v>
       </c>
     </row>
     <row r="20">
@@ -10141,19 +10141,19 @@
         <v>538752</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>506530</v>
+        <v>503228</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>574583</v>
+        <v>575041</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4845536142482072</v>
+        <v>0.4845536142482071</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4555733537448785</v>
+        <v>0.4526031841850692</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5167801320727754</v>
+        <v>0.5171920147269521</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>450</v>
@@ -10162,19 +10162,19 @@
         <v>296618</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>272815</v>
+        <v>271895</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320936</v>
+        <v>319985</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.352601764502107</v>
+        <v>0.3526017645021071</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3243055734655257</v>
+        <v>0.3232124351774182</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3815091289765836</v>
+        <v>0.3803784405206972</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1007</v>
@@ -10183,19 +10183,19 @@
         <v>835371</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>790910</v>
+        <v>785621</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>881249</v>
+        <v>876808</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4277194859640917</v>
+        <v>0.4277194859640916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4049551835940532</v>
+        <v>0.4022468477641852</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4512098487700457</v>
+        <v>0.4489358525533331</v>
       </c>
     </row>
     <row r="21">
@@ -10212,19 +10212,19 @@
         <v>353210</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>317817</v>
+        <v>319733</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>388033</v>
+        <v>390753</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3176767413018352</v>
+        <v>0.3176767413018353</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2858444654466322</v>
+        <v>0.2875683258802169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3489969397165545</v>
+        <v>0.3514436275011313</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>510</v>
@@ -10233,19 +10233,19 @@
         <v>383798</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>358326</v>
+        <v>358663</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>407897</v>
+        <v>408681</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4562349921730955</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4259553264420247</v>
+        <v>0.426355881855482</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4848827346368157</v>
+        <v>0.485814502824566</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>817</v>
@@ -10254,19 +10254,19 @@
         <v>737008</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>693382</v>
+        <v>698783</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>779540</v>
+        <v>785488</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.3773563700451422</v>
+        <v>0.3773563700451421</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3550197282838222</v>
+        <v>0.3577849451867486</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3991332454748489</v>
+        <v>0.4021786999812622</v>
       </c>
     </row>
     <row r="22">
@@ -10283,19 +10283,19 @@
         <v>4786</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1394</v>
+        <v>1579</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11568</v>
+        <v>12280</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004304479140880614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001253543792953611</v>
+        <v>0.001420363405863532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0104041420256734</v>
+        <v>0.01104483200139397</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -10304,19 +10304,19 @@
         <v>21257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14049</v>
+        <v>13840</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32467</v>
+        <v>31659</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02526893767241609</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01670080384516778</v>
+        <v>0.01645189848150372</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03859418627019096</v>
+        <v>0.03763448255242578</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -10325,19 +10325,19 @@
         <v>26043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17181</v>
+        <v>17460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38903</v>
+        <v>37898</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01333426332261789</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008797119702782153</v>
+        <v>0.008939936962896484</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01991873796520521</v>
+        <v>0.01940402839885039</v>
       </c>
     </row>
     <row r="23">
@@ -10429,19 +10429,19 @@
         <v>97396</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79531</v>
+        <v>79802</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114492</v>
+        <v>116852</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1780460282772913</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1453877193481448</v>
+        <v>0.1458841737515981</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.209298869275646</v>
+        <v>0.2136125715381333</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>309</v>
@@ -10450,19 +10450,19 @@
         <v>194204</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>175633</v>
+        <v>174889</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>214419</v>
+        <v>213627</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2469247005806897</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2233133027174958</v>
+        <v>0.2223670852298263</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2726279363667828</v>
+        <v>0.2716212580864446</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>412</v>
@@ -10471,19 +10471,19 @@
         <v>291599</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>264603</v>
+        <v>265991</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>319095</v>
+        <v>318571</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2186697264013844</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1984251428097391</v>
+        <v>0.1994657891618413</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2392887166211968</v>
+        <v>0.2388953663523536</v>
       </c>
     </row>
     <row r="25">
@@ -10500,19 +10500,19 @@
         <v>246158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>221962</v>
+        <v>220382</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>270435</v>
+        <v>270066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4499937186983635</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4057618433586866</v>
+        <v>0.4028738660208299</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4943725487935219</v>
+        <v>0.4936984359907917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>485</v>
@@ -10521,19 +10521,19 @@
         <v>302328</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>276233</v>
+        <v>280263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>324459</v>
+        <v>327266</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3844017942019374</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3512224819899956</v>
+        <v>0.3563468366531963</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4125415715560877</v>
+        <v>0.4161102770024843</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>732</v>
@@ -10542,19 +10542,19 @@
         <v>548486</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>513130</v>
+        <v>517511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>581131</v>
+        <v>584223</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4113084994423347</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3847953075931208</v>
+        <v>0.3880803569851142</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4357888260583689</v>
+        <v>0.4381078118348304</v>
       </c>
     </row>
     <row r="26">
@@ -10571,19 +10571,19 @@
         <v>193731</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>171341</v>
+        <v>169949</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>220674</v>
+        <v>218759</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3541539526774664</v>
+        <v>0.3541539526774663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3132228887846736</v>
+        <v>0.3106777196981383</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4034071299886027</v>
+        <v>0.3999052443390626</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>403</v>
@@ -10592,19 +10592,19 @@
         <v>276258</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>252787</v>
+        <v>253075</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>297671</v>
+        <v>299969</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.351254241525193</v>
+        <v>0.3512542415251929</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3214122603741437</v>
+        <v>0.321778392630194</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3784801904201079</v>
+        <v>0.3814023725667461</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>578</v>
@@ -10613,19 +10613,19 @@
         <v>469989</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>437057</v>
+        <v>437499</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>504275</v>
+        <v>503461</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3524437427306464</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3277483395364206</v>
+        <v>0.3280798332774127</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3781550021226718</v>
+        <v>0.3775441608864137</v>
       </c>
     </row>
     <row r="27">
@@ -10642,19 +10642,19 @@
         <v>9741</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3152</v>
+        <v>3002</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>24287</v>
+        <v>24159</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01780630034687879</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.005762856802919814</v>
+        <v>0.005487976338535431</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04439889825757055</v>
+        <v>0.04416457867536289</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>17</v>
@@ -10663,19 +10663,19 @@
         <v>13700</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8373</v>
+        <v>8140</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>22104</v>
+        <v>22416</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01741926369217998</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01064564679395471</v>
+        <v>0.01035020604119537</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02810466110010195</v>
+        <v>0.02850152553924552</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>22</v>
@@ -10684,19 +10684,19 @@
         <v>23441</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>14138</v>
+        <v>14519</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>38134</v>
+        <v>40145</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01757803142563439</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01060182166283863</v>
+        <v>0.01088808540536669</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02859647776216772</v>
+        <v>0.03010443187439099</v>
       </c>
     </row>
     <row r="28">
@@ -10788,19 +10788,19 @@
         <v>12825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5130</v>
+        <v>5038</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29256</v>
+        <v>28937</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05519389992454789</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02207886811277053</v>
+        <v>0.02167899415647585</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1259023675269113</v>
+        <v>0.1245309525793156</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>236</v>
@@ -10809,19 +10809,19 @@
         <v>144395</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>124854</v>
+        <v>127079</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>164643</v>
+        <v>164231</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1808712012134681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1563939948181287</v>
+        <v>0.1591802854793103</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2062339966822329</v>
+        <v>0.2057169352679755</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>243</v>
@@ -10830,19 +10830,19 @@
         <v>157221</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>135654</v>
+        <v>136054</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>178833</v>
+        <v>179874</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.152537376005332</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1316125034400056</v>
+        <v>0.1320005108144008</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1735051065644883</v>
+        <v>0.174515616274372</v>
       </c>
     </row>
     <row r="30">
@@ -10859,19 +10859,19 @@
         <v>64735</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43315</v>
+        <v>45339</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90373</v>
+        <v>91597</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2785841974016637</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1864037345478999</v>
+        <v>0.1951148833348004</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3889149201403095</v>
+        <v>0.3941849326561717</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>461</v>
@@ -10880,19 +10880,19 @@
         <v>297788</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>274192</v>
+        <v>275352</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>324681</v>
+        <v>324925</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3730126953876017</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.343455614290571</v>
+        <v>0.3449089135095864</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4066992328306201</v>
+        <v>0.4070042026395993</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>492</v>
@@ -10901,19 +10901,19 @@
         <v>362524</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>329719</v>
+        <v>328266</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>395153</v>
+        <v>395064</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3517238824582914</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3198960951277409</v>
+        <v>0.3184865102273209</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3833814841707852</v>
+        <v>0.3832953037891504</v>
       </c>
     </row>
     <row r="31">
@@ -10930,19 +10930,19 @@
         <v>145046</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>117500</v>
+        <v>121591</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>166177</v>
+        <v>170201</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.6242017907149643</v>
+        <v>0.6242017907149642</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5056576957967805</v>
+        <v>0.5232622505315471</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7151379315098526</v>
+        <v>0.7324532775051456</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>371</v>
@@ -10951,19 +10951,19 @@
         <v>332149</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>305658</v>
+        <v>303866</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>363638</v>
+        <v>361870</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4160533218924561</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3828698216552066</v>
+        <v>0.3806251786853461</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4554965606474844</v>
+        <v>0.4532822124204965</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>438</v>
@@ -10972,19 +10972,19 @@
         <v>477196</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>440778</v>
+        <v>442900</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>513625</v>
+        <v>513223</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.4629801915218409</v>
+        <v>0.4629801915218411</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4276473387854723</v>
+        <v>0.4297058302747654</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4983240402722751</v>
+        <v>0.4979336192295274</v>
       </c>
     </row>
     <row r="32">
@@ -11001,19 +11001,19 @@
         <v>9764</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1805</v>
+        <v>1742</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31316</v>
+        <v>26433</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04202011195882431</v>
+        <v>0.0420201119588243</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007769228347516859</v>
+        <v>0.007495038272079677</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1347655388497138</v>
+        <v>0.1137534177445791</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -11022,19 +11022,19 @@
         <v>24000</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13511</v>
+        <v>13022</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>39800</v>
+        <v>38130</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03006278150647421</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01692461947494443</v>
+        <v>0.01631164160382952</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04985339718502873</v>
+        <v>0.04776185952530988</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -11043,19 +11043,19 @@
         <v>33764</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>20758</v>
+        <v>21348</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>56660</v>
+        <v>54802</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03275855001453556</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02013958339611503</v>
+        <v>0.02071160148610391</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.05497235093263462</v>
+        <v>0.05316978269820579</v>
       </c>
     </row>
     <row r="33">
@@ -11147,19 +11147,19 @@
         <v>571870</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>529787</v>
+        <v>529505</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>620380</v>
+        <v>619121</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1697900940023129</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1572955342224419</v>
+        <v>0.1572117320921173</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1841927377541775</v>
+        <v>0.1838190790601248</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>948</v>
@@ -11168,19 +11168,19 @@
         <v>604563</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>567388</v>
+        <v>569360</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>641724</v>
+        <v>644087</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1728088165380335</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1621828110507663</v>
+        <v>0.1627463551240367</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1834308901522407</v>
+        <v>0.1841064993209758</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1549</v>
@@ -11189,19 +11189,19 @@
         <v>1176433</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1116049</v>
+        <v>1112471</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1232334</v>
+        <v>1233774</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1713281073020209</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1625341858543842</v>
+        <v>0.1620130950463419</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1794690762951212</v>
+        <v>0.1796788047726154</v>
       </c>
     </row>
     <row r="35">
@@ -11218,19 +11218,19 @@
         <v>1518680</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1451098</v>
+        <v>1451513</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1582745</v>
+        <v>1584444</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4509007655687758</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4308354070752347</v>
+        <v>0.4309587822652135</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4699218822414573</v>
+        <v>0.4704263614769327</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1869</v>
@@ -11239,19 +11239,19 @@
         <v>1214092</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1163958</v>
+        <v>1169688</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1262768</v>
+        <v>1261673</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3470371799537427</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3327069575618216</v>
+        <v>0.334344791469609</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3609508025664863</v>
+        <v>0.3606378441727426</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3402</v>
@@ -11260,19 +11260,19 @@
         <v>2732772</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2645414</v>
+        <v>2646329</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2813163</v>
+        <v>2818520</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3979831574941586</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3852609378815252</v>
+        <v>0.3853941626646077</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4096907685338179</v>
+        <v>0.4104709463527846</v>
       </c>
     </row>
     <row r="36">
@@ -11289,19 +11289,19 @@
         <v>1248844</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1186731</v>
+        <v>1183522</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1318172</v>
+        <v>1314555</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3707856783532907</v>
+        <v>0.3707856783532906</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3523442600851195</v>
+        <v>0.3513912470709055</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.391369380784175</v>
+        <v>0.3902955672405325</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2113</v>
@@ -11310,19 +11310,19 @@
         <v>1597811</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1547085</v>
+        <v>1542931</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1646966</v>
+        <v>1653275</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.4567199071547077</v>
+        <v>0.4567199071547076</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4422201911897746</v>
+        <v>0.4410329437973125</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4707702465363484</v>
+        <v>0.4725737282605706</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3186</v>
@@ -11331,19 +11331,19 @@
         <v>2846655</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2766594</v>
+        <v>2765540</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2937982</v>
+        <v>2927548</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.4145684325590118</v>
+        <v>0.4145684325590119</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4029087594398817</v>
+        <v>0.4027553088497167</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.427868640801325</v>
+        <v>0.4263491241083316</v>
       </c>
     </row>
     <row r="37">
@@ -11360,19 +11360,19 @@
         <v>28708</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15695</v>
+        <v>15929</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>49576</v>
+        <v>51087</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.008523462075620594</v>
+        <v>0.008523462075620592</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.004659758938724889</v>
+        <v>0.004729516729900827</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01471917236186462</v>
+        <v>0.01516776500352087</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>88</v>
@@ -11381,19 +11381,19 @@
         <v>81983</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>65742</v>
+        <v>64864</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>103440</v>
+        <v>103434</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.02343409635351626</v>
+        <v>0.02343409635351625</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0187917066212722</v>
+        <v>0.01854085823001647</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02956731975478295</v>
+        <v>0.02956580401192352</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>106</v>
@@ -11402,19 +11402,19 @@
         <v>110691</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>87503</v>
+        <v>87219</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>139540</v>
+        <v>136442</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0161203026448088</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01274331314796702</v>
+        <v>0.01270201818616967</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02032164945645905</v>
+        <v>0.01987059882857406</v>
       </c>
     </row>
     <row r="38">
